--- a/biology/Zoologie/Epipedobates_boulengeri/Epipedobates_boulengeri.xlsx
+++ b/biology/Zoologie/Epipedobates_boulengeri/Epipedobates_boulengeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epipedobates boulengeri est une espèce d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epipedobates boulengeri est une espèce d'amphibiens de la famille des Dendrobatidae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre du niveau de la mer jusqu'à 1 460 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre du niveau de la mer jusqu'à 1 460 m d'altitude :
 en Colombie sur l'île Gorgona, dans la plaine pacifique et sur le versant Ouest de la cordillère Occidentale dans les départements de Nariño, de Cauca et de Valle del Cauca ;
 en Équateur dans les provinces d'Esmeraldas, de Pichincha et d'Imbabura.
-C'est une espèce terrestre qui vit sur le sol de la forêt tropicale humide[2].
+C'est une espèce terrestre qui vit sur le sol de la forêt tropicale humide.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de George Albert Boulenger.
 </t>
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbour, 1905 : The vertebrata of Gorgona Island, Colombia. Reptilia Amphibia. Bulletin of the Museum Comparative Zoology, vol. 46, no 5, p. 87-102 (texte intégral).
 Barbour, 1909 : Corrections regarding the names of two recently described Amphibia Salientia. Proceedings of the Biological Society of Washington, vol. 22, p. 89 (texte intégral).</t>
